--- a/financial_report_546914209.xlsx
+++ b/financial_report_546914209.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08-08-2024</t>
+          <t>10-08-2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123123</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08-08-2024</t>
+          <t>10-08-2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -496,13 +496,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>74747</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ооаоа</t>
+          <t>аренду</t>
         </is>
       </c>
     </row>

--- a/financial_report_546914209.xlsx
+++ b/financial_report_546914209.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,10 +471,8 @@
           <t>Приход</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10000</t>
-        </is>
+      <c r="C2" t="n">
+        <v>10000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -494,10 +492,8 @@
           <t>Расход</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
+      <c r="C3" t="n">
+        <v>-5000</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -505,6 +501,82 @@
           <t>аренду</t>
         </is>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10-08-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1111</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>лял</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-08-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Расход</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-190000</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>аренду</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10-08-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>217873</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>почку</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Прибыль</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33984</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
